--- a/Data Samples/overnight_test.xlsx
+++ b/Data Samples/overnight_test.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="overnight_test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="11">
   <si>
     <t>bright</t>
   </si>
@@ -31,6 +32,27 @@
   </si>
   <si>
     <t>light</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:22:00 AM</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>light(qualitative)</t>
   </si>
 </sst>
 </file>
@@ -514,9 +536,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2243,11 +2266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368630976"/>
-        <c:axId val="368630584"/>
+        <c:axId val="267629080"/>
+        <c:axId val="267628296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368630976"/>
+        <c:axId val="267629080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,12 +2326,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368630584"/>
+        <c:crossAx val="267628296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368630584"/>
+        <c:axId val="267628296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,7 +2388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368630976"/>
+        <c:crossAx val="267629080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4058,11 +4081,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="367164440"/>
-        <c:axId val="418257336"/>
+        <c:axId val="266651544"/>
+        <c:axId val="266652720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="367164440"/>
+        <c:axId val="266651544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,7 +4128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418257336"/>
+        <c:crossAx val="266652720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4113,7 +4136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418257336"/>
+        <c:axId val="266652720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4164,7 +4187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367164440"/>
+        <c:crossAx val="266651544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5655,8 +5678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A501" sqref="A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19465,4 +19488,473 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="B2">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>30.02</v>
+      </c>
+      <c r="E2">
+        <v>412</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>HOUR(A2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="B3">
+        <v>80.816000000000003</v>
+      </c>
+      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>30.02</v>
+      </c>
+      <c r="E3">
+        <v>432</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H19" si="0">HOUR(A3)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="B4">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>459</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="B5">
+        <v>79.466000000000008</v>
+      </c>
+      <c r="C5">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>453</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="B6">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="C6">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="B7">
+        <v>77.108000000000004</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>30.02</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="B8">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>30.03</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.93263888888888891</v>
+      </c>
+      <c r="B9">
+        <v>76.891999999999996</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>30.06</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.97430555555555554</v>
+      </c>
+      <c r="B10">
+        <v>76.891999999999996</v>
+      </c>
+      <c r="C10">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>30.05</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="B11">
+        <v>76.442000000000007</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>30.05</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="B12">
+        <v>75.992000000000004</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>30.03</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>75.992000000000004</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>30.01</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="B14">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="C14">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0.18263888888888891</v>
+      </c>
+      <c r="B15">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="B16">
+        <v>76.207999999999998</v>
+      </c>
+      <c r="C16">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>30.01</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="B17">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="C17">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>30.03</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="B18">
+        <v>75.542000000000002</v>
+      </c>
+      <c r="C18">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>30.05</v>
+      </c>
+      <c r="E18">
+        <v>105</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="B19">
+        <v>75.866</v>
+      </c>
+      <c r="C19">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>30.06</v>
+      </c>
+      <c r="E19">
+        <v>121</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>